--- a/backend/database/default_data/attachment/received_2023200001.xlsx
+++ b/backend/database/default_data/attachment/received_2023200001.xlsx
@@ -446,19 +446,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>李四</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2023200001</v>
+        <v>2023200000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13800138002</t>
+          <t>13800138001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
